--- a/ADMIN_ExcelFile.xlsx
+++ b/ADMIN_ExcelFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57" count="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="64">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
@@ -58,7 +58,7 @@
     <x:t>latest_dose_date</x:t>
   </x:si>
   <x:si>
-    <x:t>612b6e972fd1e10044822f37</x:t>
+    <x:t>612c446e21b1190043d71b5d</x:t>
   </x:si>
   <x:si>
     <x:t>https://lh3.googleusercontent.com/a-/AOh14Gj1ww5UEswYptQPWEoVEaPYRkThY6c5A9AJQmVd=s96-c</x:t>
@@ -85,106 +85,127 @@
     <x:t>media/consent/f20200048@pilani.bits-pilani.ac.in.pdf</x:t>
   </x:si>
   <x:si>
+    <x:t>Tue Sep 21 2021 04:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612c44dc82a6e7f8ae653cf4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200047@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b7278fdaa04d6486cb7e2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT MAKWANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190049@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c44f082a6e7f8ae653cf6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b7292fdaa04d6486cb7e4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200047@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c450282a6e7f8ae653cf8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20180047@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jan 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612c451c82a6e7f8ae653cfa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190000@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b72b1fdaa04d6486cb7e6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190046@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c453082a6e7f8ae653cfc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20180027@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b72ccfdaa04d6486cb7e8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200045@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c454782a6e7f8ae653cfe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200037@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b72d6fdaa04d6486cb7ea</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20180044@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c455582a6e7f8ae653d00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200041@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b72e0fdaa04d6486cb7ec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200043@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c456882a6e7f8ae653d02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190042@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b72e8fdaa04d6486cb7ee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200042@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c457b82a6e7f8ae653d04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20180147@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612b72f2fdaa04d6486cb7f0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20180041@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c458f82a6e7f8ae653d06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612b72fafdaa04d6486cb7f2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190040@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612b7392d01c4e002d9b85e4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjEkCRdgPIW745KrN6wCdhRnqWpeZ4lhGHrwE7HbQ=s96-c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AKSHAT KUMAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20201976@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Aug 29 2021 17:14:52 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -681,10 +702,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>18</x:v>
@@ -711,21 +732,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14">
       <x:c r="A5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>18</x:v>
@@ -752,21 +773,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14">
       <x:c r="A6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>18</x:v>
@@ -793,21 +814,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="A7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>18</x:v>
@@ -834,21 +855,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="A8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>18</x:v>
@@ -875,21 +896,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14">
       <x:c r="A9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>18</x:v>
@@ -916,21 +937,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="A10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>18</x:v>
@@ -957,21 +978,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="A11" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>18</x:v>
@@ -998,27 +1019,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14">
       <x:c r="A12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>20</x:v>
@@ -1026,6 +1047,12 @@
       <x:c r="H12" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="K12" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
@@ -1033,7 +1060,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ADMIN_ExcelFile.xlsx
+++ b/ADMIN_ExcelFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60" count="60">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
@@ -58,16 +58,16 @@
     <x:t>latest_dose_date</x:t>
   </x:si>
   <x:si>
-    <x:t>612c446e21b1190043d71b5d</x:t>
+    <x:t>612c5e9c32ebc7a475387a29</x:t>
   </x:si>
   <x:si>
     <x:t>https://lh3.googleusercontent.com/a-/AOh14Gj1ww5UEswYptQPWEoVEaPYRkThY6c5A9AJQmVd=s96-c</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHIT DILIP MAKWANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200048@pilani.bits-pilani.ac.in</x:t>
+    <x:t>MOHIT MAKWANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20180047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>NONE</x:t>
@@ -85,124 +85,112 @@
     <x:t>media/consent/f20200048@pilani.bits-pilani.ac.in.pdf</x:t>
   </x:si>
   <x:si>
-    <x:t>Tue Sep 21 2021 04:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612c44dc82a6e7f8ae653cf4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200047@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c44f082a6e7f8ae653cf6</x:t>
+    <x:t>612c6e8232ebc7a475387a2b</x:t>
   </x:si>
   <x:si>
     <x:t>MOHIT 3</x:t>
   </x:si>
   <x:si>
+    <x:t>f20200027@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612c6e8b32ebc7a475387a2d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 4</x:t>
+  </x:si>
+  <x:si>
     <x:t>f20190047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c450282a6e7f8ae653cf8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20180047@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jan 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612c451c82a6e7f8ae653cfa</x:t>
+    <x:t>612c6edc32ebc7a475387a31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20180147@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612c6eee32ebc7a475387a33</x:t>
   </x:si>
   <x:si>
     <x:t>MOHIT 5</x:t>
   </x:si>
   <x:si>
-    <x:t>f20190000@pilani.bits-pilani.ac.in</x:t>
+    <x:t>f20191047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c453082a6e7f8ae653cfc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20180027@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6efc32ebc7a475387a35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190027@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c454782a6e7f8ae653cfe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200037@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6f0c32ebc7a475387a37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200547@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c455582a6e7f8ae653d00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200041@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6f1b32ebc7a475387a39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200447@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c456882a6e7f8ae653d02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190042@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6f2d32ebc7a475387a3b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20192047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c457b82a6e7f8ae653d04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20180147@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612c458f82a6e7f8ae653d06</x:t>
+    <x:t>612c6f3d32ebc7a475387a3d</x:t>
   </x:si>
   <x:si>
     <x:t>MOHIT 11</x:t>
   </x:si>
   <x:si>
-    <x:t>f20191047@pilani.bits-pilani.ac.in</x:t>
+    <x:t>f20208047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
@@ -1022,47 +1010,6 @@
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:14">
-      <x:c r="A12" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K12" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L12" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M12" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ADMIN_ExcelFile.xlsx
+++ b/ADMIN_ExcelFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60" count="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393" count="393">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
@@ -100,100 +100,1099 @@
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c6e8b32ebc7a475387a2d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190047@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6edc32ebc7a475387a31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20180147@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c6edc32ebc7a475387a31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20180147@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6f0c32ebc7a475387a37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200547@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c6eee32ebc7a475387a33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191047@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6f1b32ebc7a475387a39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200447@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c6efc32ebc7a475387a35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190027@pilani.bits-pilani.ac.in</x:t>
+    <x:t>612c6f3d32ebc7a475387a3d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20208047@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>612c6f0c32ebc7a475387a37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200547@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612c6f1b32ebc7a475387a39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200447@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612c6f2d32ebc7a475387a3b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20192047@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612c6f3d32ebc7a475387a3d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHIT 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20208047@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Sep 21 2021 16:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+    <x:t>612d165a3673080043320b8b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJwleeXBY--EzW3cz23Y03EDPv8zaXwUXIH2FEw=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swapnil Shivam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200040@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Aug 30 2021 17:02:13 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612dc7153673080043320b8e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GgyLFFB4zNiGlD1zGXJa8aNi6LVlD93mEh53Ymo4O4=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIDHEESH JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190024@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Aug 30 2021 17:02:13 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612dd2d63673080043320b92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GiZ6QW1RQblnumiGvSayd7nDxTraPvP-ACmEI-GrQ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navin Singh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>navin@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Aug 30 2021 17:02:13 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612e97d7a22ea001313c6aef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjEkCRdgPIW745KrN6wCdhRnqWpeZ4lhGHrwE7HbQ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKSHAT KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20201976@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 00:48:14 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ee9dca22ea001313c6afe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GgqxXKThfiHUzm6sM0ceTrTQhrWsa0kIuHvNd3D=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHARAT AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190725@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 00:48:14 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612eea06a22ea001313c6b01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gj5feWv0FIaFxzgie3f17_urBTFczOALIf7dh_wZA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anshuman Verma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190710@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 00:48:14 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612eed31a22ea001313c6b04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJy9ZHOl-XzbBPEDjD2EFYHCiEy8mfO5PfkqVerb=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIDDARTH TODI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190991@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 00:48:14 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612eed46a22ea001313c6b08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gi8VNnaR0KCy7vKMbfZ05f-G6R5di0LswHurI38=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KSHITIJ TANDON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200972@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 00:48:14 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef150415a7400415b1a9b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Ggwh46M2qw3-UDYNUubFtTFtUHZqIzhA75ZkxUI7g=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G SHRAVAN GOKUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190729@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMPLETE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DONE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190729@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/consent/f20190729@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Sep 18 2021 12:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Aug 29 2021 07:02:15 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef36ea1badd0056547e2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GhFkUk-hzstRU7FowK69_g6lPuVBkby-olT45P-=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parth Sharma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20201229@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20201229@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/consent/f20201229@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Sep 21 2021 12:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Aug 29 2021 07:32:45 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef474a1badd0056547e96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJw2vAl2Uff8uh85wD57y_1iEMn1R1ysfpNq6ySW=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHREY BANSAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190592@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 08:52:03 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef498a1badd0056547e99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJyuYbSZjKhU0V7y6nKKcUC6otJt6iYbrBufilST=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hrithik Raj Gupta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190995@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190995@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/consent/f20190995@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Sep 19 2021 06:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jun 19 2021 04:50:27 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef50ca1badd0056547ea8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GiWJmy-fb8A9X6mS-WQltH_gLbNwXu0D1ggj7RtsA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bhumik Joshi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190199@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190199@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sun Sep 19 2021 13:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Aug 06 2021 08:51:12 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef568a1badd0056547eab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJw3KYwCD6-oAmfbI-Rk1uiIH7VM36MoykYWRsBy=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIPUNJAY NARANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190977@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 08:52:03 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef5c7a1badd0056547eb1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GgcSbO3loD8To8X0RJjX3fLjWbxyexox2B8SHlSJg=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARANSH NIRAJKUMAR JHUNJHUNWALA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191001@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 08:52:03 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef660a1badd0056547eb6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJx3QEVg5-O_EWeEiEtZp9fSXbiiY014L7qRSd40=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMRITI MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191261@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 08:52:03 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef6d9a1badd0056547ec0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjMorRaPgvu540tYjuntt5A2EOSFp-R252XMzb4Qw=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADITYA SHARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190812@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190812@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/consent/f20190812@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 15 2021 01:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Jul 08 2021 11:23:25 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef6dea1badd0056547ec3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJx3P3DXgkG3iOo9c-183mx5nS1nvR-Bt7HQS98G=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIRESH KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190772@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 08:52:03 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef7ada1badd0056547eca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjzQC1UcbjPZX0XqZND9picH3af4X7OY3yE6WS3=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NISHTHA PAREEK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191044@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 08:52:03 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef7fda1badd0056547ed4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJwda9gVlmMCII7dtsrMf1_mKRj3WdCbkn3fyGve=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sai Sudeep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190515@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 08:52:03 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef8323489e600849a9609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJzgE5oFXjCahyZxAdm3D7l_URkaqIntySM7j7ug=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRADYUT KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190943@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190943@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/consent/f20190943@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 15 2021 08:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jul 24 2021 05:23:55 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef83f3489e600849a960c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjPjUud_aBHuT4lU6Qdp-UBYbcEEiVFWakQbMsU=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VISHAL PUNDHIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191055@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:18:22 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef8473489e600849a960f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJzYIH_aBwSRtR0WOX40KDe9cgQ68O97uGHdT7OX=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMBHAV JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190192@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARTIAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190192@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:18:22 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Jun 09 2021 10:25:54 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef8523489e600849a961d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJzdRWnUoc7IQGykRBJmjFZqRf7JBzbkDuVjTe8=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIDDHESH KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191043@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:18:22 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef8553489e600849a9624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GhVXR38MOkyXzfi-0JME1nKqkg_wuuSWY8AONougw=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akshat Garg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190695@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:18:22 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef887ebbfce00a224da5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GgWjTWg1oTmAl5wyPHF1qxtwsdUChSqFAjE56U=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tanmay Dhama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190591@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:20:28 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef90cebbfce00a224da76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJzpQgl4kCn8vsqxII8mgFVBOxvQUGthJyWLnw7U=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARPIT SINGH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190956@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190956@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Sep 18 2021 07:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Aug 16 2021 08:21:43 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef950fa472d00b1220f29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gh8FS9UAmKsSVQIOXceiBQ5v-_zDTzm5ywa2qTjSg=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sanskar Jhajharia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190148@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:23:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef957fa472d00b1220f2c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gh1W6IQVYA35-rMnv8dQPKSdF1bBArM3e5qM7qSQg=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM SUKETU MEHTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190510@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:23:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef968fa472d00b1220f31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gh2OkjgHGqw7ShvnRjxh4aPuzVbbpqwFesxoNmZ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HITANSHU HITANSHU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190687@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:23:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef96ffa472d00b1220f34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GiS4IJEVW1vIwYGJEeGzrYclzxZ0l-gSTanWbaUzA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kapil Raghunandan Tripathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190852@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190852@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/consent/f20190852@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Sep 17 2021 11:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jun 26 2021 13:38:17 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef98209563c00be446e7e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHIT DILIP MAKWANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20200048@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:24:27 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef9a009563c00be446e83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJz8wl5q37gX2K4uupS4G3Qt2RsLnXR4tVi3GTcQ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHAVIKA GOPALANI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190971@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:24:27 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612ef9f109563c00be446e88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GgdNZhCO_3uC6qtxSZ09yS0nazW13u88g4AMIeN=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanmugha Balan S V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190571@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:24:27 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efa3d09563c00be446e9a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJxPK1nqL4jcmuybV5RYlxRNEbiSBOzVkFUX4d3unA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAVISH JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190492@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:24:27 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efb200f17c000ead637b9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJy3xtj4oqMLXR2cszviCyqw8Q8yNLYEXlTIXTvA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ayushi Kamal Sharma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191265@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efb320f17c000ead637bc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gi0m4m7t0gL8jnHLAgrPh_1Z2XK05iyNyHFJ581Xg=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pranay Bansal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190471@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/pdf/f20190471@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>media/consent/f20190471@pilani.bits-pilani.ac.in.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Sep 18 2021 07:30:00 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fri Jul 16 2021 03:59:43 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efb6c0f17c000ead637c7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjR-KPhM-0DrZqAEhi1REM07G-2TMNNYVlpbOvcQw=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HRITAV SINGH SOLANKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191049@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efb740f17c000ead637cc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GieFjfMp4mYvpVXq8844meKktugDrC9-mbkvVps=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARYAN MOHAKUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190965@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efbcf0f17c000ead637df</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJwq5YFyfNb5cW3FJRUL4KlZLVtoUpwJVjAnP-I5mA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASTITVA AGNIHOTRI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190522@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efbde0f17c000ead637e2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gg-maCoDFomX_XtFRT-5PwFG1SrWYiA28b67DxddQ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAIDEEP GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190702@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efc0b0f17c000ead637e6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GgJPGVEs1f4DkcWuYtJFI5w0HSvn5UHi2SNbOPN=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Priyanshu Shukla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190558@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efc440f17c000ead637f0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14Gjzzh1t0z-y5I9zc5mqOP_x9QPLxYCytxD1_xQIHQ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aditya Rao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190576@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efc730f17c000ead63802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJyYwkC5O8K2Kksypb8I5wN-5geyNppcyeaSKbmZ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKSHAT JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190987@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efd050f17c000ead6381b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GhFXZfmtt4zox_mv-A0EU4r2LWjCmkfdjHVlIWueQ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANIRUDDH BAKSHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190912@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efd7f0f17c000ead6382c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJzfg83rcnxoDTf4Sv_5WmO1mCYMs14jHRCGg_RK=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANAS DESAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190659@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efe3e0f17c000ead6382f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GiNRMEdzb5MkpLF_I4OCJm3PhSwQoEMtqpcVyDpuQ=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YASH SATISH THAKKER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191026@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efe680f17c000ead63832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJypZ4zhhfs3_CssceoXxwwZYv3F1vaW7jyk9IC6=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chirag Matai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190969@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612efe7f0f17c000ead63835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjXVS4XZXV_YdrUVYoH1cCtVf2jyUSC43k03Znw4Q=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pranay Venkatesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191004@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612eff9d0f17c000ead63838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJyu5oXNbdsSQDjyQUyZ_Ne8vA-oNVolLAt2ebeE=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISHAAN SARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190559@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612eff9d0f17c000ead6383b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GiybYNntKWhwP3MSxiHD6JQ-Mwqq1ZffhkKm2Sx-g=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAYAN MAJUMDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190259@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f00360f17c000ead63846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJy8medENT_fMYsauppzINcthMOHqQyzXR5QHrr7=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYUSH SHARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191027@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f00810f17c000ead6384b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJyYD7nXUF9ps10qti4UqY0AhEJNSH6HSrv3aEd-=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAKSHAM MAHAJAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190627@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:30:35 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f00af9e2d8201102714e8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GiQxKce1rYQugOgt21_KvrUnbmNqyPF7LFovJnq=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAYANSH GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190528@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f00b09e2d8201102714eb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJztBoCC8fH72tNWbHTw1MyAahDB-K3NcJJDza1wpg=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUNDU KARTHIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191042@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f01039e2d8201102714ee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GjkxtEAvKblI7mNxrfKI9gVuSwc7lY9maQErUMfag=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIDDHAM JASORIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190946@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f01719e2d820110271533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJzoeBlMWONpxyRBjTrLI7nNw0RaKmYL145NM9ek=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UTKARSH ADHIKARI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191050@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f01839e2d820110271536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GiuuhguxzXEJGBKYVl14owwy2FYIf5x32UAkRztkA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPARSH GOYAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190494@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f02969e2d82011027153d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a-/AOh14GhXnaNoxjuWXKzhdrc3QrE9TBbySr820x2Zf77EaA=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MUSKAAN GARG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190940@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f029f9e2d820110271540</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJyVuoFG2IWiU3gIGe2KWG6TBAHZvpXttKcY89nW=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prakarsh Mehrotra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190738@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f02ab9e2d820110271543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJx391aDRJugBg53BB3bL_xEwu95PbQlEYi9uF_H=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUDHANSHU MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190750@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f02ab9e2d820110271546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJxEs4iT_PAAbrq0XMbt_ux4tO5tzPBTfWFd2eF2=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KSHITIJ SRIVASTAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190811@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f02f99e2d820110271549</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJxPKwYEHswZdn-1yGLLd6nxJ3fZZWt4wloRCVIK=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKARSH CHANDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190508@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612f03c19e2d82011027293f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://lh3.googleusercontent.com/a/AATXAJwkMGV4mk4e8hvwrA50eCWWVqpe55eoqQpCO50k=s96-c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T P CHANDRA CHUDAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191030@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Sep 01 2021 09:54:36 GMT+0000 (Coordinated Universal Time)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -851,19 +1850,19 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>20</x:v>
@@ -871,12 +1870,6 @@
       <x:c r="H8" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="K8" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
@@ -884,27 +1877,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14">
       <x:c r="A9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>20</x:v>
@@ -912,12 +1905,6 @@
       <x:c r="H9" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="K9" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
@@ -925,27 +1912,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="A10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>20</x:v>
@@ -953,12 +1940,6 @@
       <x:c r="H10" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="K10" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
@@ -966,48 +1947,2223 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="A11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:14">
+      <x:c r="A12" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:14">
+      <x:c r="A13" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:14">
+      <x:c r="A14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:14">
+      <x:c r="A15" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:14">
+      <x:c r="A16" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:14">
+      <x:c r="A17" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:14">
+      <x:c r="A18" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:14">
+      <x:c r="A19" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14">
+      <x:c r="A20" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="A21" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="A22" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="A23" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14">
+      <x:c r="A24" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:14">
+      <x:c r="A25" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:14">
+      <x:c r="A26" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:14">
+      <x:c r="A27" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:14">
+      <x:c r="A28" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:14">
+      <x:c r="A29" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:14">
+      <x:c r="A30" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:14">
+      <x:c r="A31" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:14">
+      <x:c r="A32" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K32" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:14">
+      <x:c r="A33" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:14">
+      <x:c r="A34" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="K34" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:14">
+      <x:c r="A35" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K35" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:14">
+      <x:c r="A36" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:14">
+      <x:c r="A37" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:14">
+      <x:c r="A38" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:14">
+      <x:c r="A39" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L11" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M11" s="0" t="s">
-        <x:v>59</x:v>
+      <x:c r="C39" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:14">
+      <x:c r="A40" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:14">
+      <x:c r="A41" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:14">
+      <x:c r="A42" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:14">
+      <x:c r="A43" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:14">
+      <x:c r="A44" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:14">
+      <x:c r="A45" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L45" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M45" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:14">
+      <x:c r="A46" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M46" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:14">
+      <x:c r="A47" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:14">
+      <x:c r="A48" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:14">
+      <x:c r="A49" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:14">
+      <x:c r="A50" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:14">
+      <x:c r="A51" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M51" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:14">
+      <x:c r="A52" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L52" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M52" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:14">
+      <x:c r="A53" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L53" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M53" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:14">
+      <x:c r="A54" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:14">
+      <x:c r="A55" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L55" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:14">
+      <x:c r="A56" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:14">
+      <x:c r="A57" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K57" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L57" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M57" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:14">
+      <x:c r="A58" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K58" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L58" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M58" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:14">
+      <x:c r="A59" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K59" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L59" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M59" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:14">
+      <x:c r="A60" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K60" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:14">
+      <x:c r="A61" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K61" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L61" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M61" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:14">
+      <x:c r="A62" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:14">
+      <x:c r="A63" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K63" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L63" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:14">
+      <x:c r="A64" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M64" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:14">
+      <x:c r="A65" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K65" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L65" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M65" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:14">
+      <x:c r="A66" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K66" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L66" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M66" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:14">
+      <x:c r="A67" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:14">
+      <x:c r="A68" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K68" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L68" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M68" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:14">
+      <x:c r="A69" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K69" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L69" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M69" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:14">
+      <x:c r="A70" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:14">
+      <x:c r="A71" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K71" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L71" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M71" s="0" t="s">
+        <x:v>392</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ADMIN_ExcelFile.xlsx
+++ b/ADMIN_ExcelFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210" count="210">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243" count="243">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -91,21 +91,24 @@
     <x:t>f20190991@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
+    <x:t>COMPLETE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DONE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/14/2020, 11:13:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/17/2021, 2:30:00 PM</x:t>
+  </x:si>
+  <x:si>
     <x:t>G SHRAVAN GOKUL</x:t>
   </x:si>
   <x:si>
     <x:t>f20190729@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
-    <x:t>COMPLETE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DONE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/14/2020, 11:13:37 PM</x:t>
-  </x:si>
-  <x:si>
     <x:t>9/18/2021, 6:00:00 PM</x:t>
   </x:si>
   <x:si>
@@ -226,7 +229,10 @@
     <x:t>f20190591@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
-    <x:t>9/1/2021, 2:50:28 PM</x:t>
+    <x:t>FAILED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 9:00:00 AM</x:t>
   </x:si>
   <x:si>
     <x:t>ARPIT SINGH</x:t>
@@ -421,6 +427,9 @@
     <x:t>f20190946@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
+    <x:t>9/15/2021, 10:30:00 AM</x:t>
+  </x:si>
+  <x:si>
     <x:t>UTKARSH ADHIKARI</x:t>
   </x:si>
   <x:si>
@@ -436,6 +445,9 @@
     <x:t>f20190494@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
+    <x:t>9/15/2021, 6:30:00 AM</x:t>
+  </x:si>
+  <x:si>
     <x:t>MUSKAAN GARG</x:t>
   </x:si>
   <x:si>
@@ -499,15 +511,18 @@
     <x:t>f20190481@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
+    <x:t>9/16/2021, 3:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KITH GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190628@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
     <x:t>9/1/2021, 3:53:03 PM</x:t>
   </x:si>
   <x:si>
-    <x:t>KITH GUPTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190628@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
     <x:t>AMAAN ZAFAR</x:t>
   </x:si>
   <x:si>
@@ -565,15 +580,6 @@
     <x:t>9/1/2021, 4:18:00 PM</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHIT DILIP MAKWANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20200048@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/21/2021, 10:00:00 AM</x:t>
-  </x:si>
-  <x:si>
     <x:t>PALAK SOLANKI</x:t>
   </x:si>
   <x:si>
@@ -644,6 +650,228 @@
   </x:si>
   <x:si>
     <x:t>9/1/2021, 4:40:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHAVY GOEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190586@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:50:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rakshay Goyal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190490@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMIT SANJEEV DOSI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190643@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaurya Marwah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190459@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRIDUL BHATIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190410@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANANY PORWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190894@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DISHANT PRADEEP PODDAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191032@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARSH AGRAWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190996@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DHRUV AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190892@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIKUNJ ASHISH MEHADIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190343@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RISHITA AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190989@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nitya Gandhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191003@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHIT GEOZU JAMES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190921@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 5:52:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HRIDAY KEDIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190964@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 5:54:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kushagra Chhabra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190786@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRANAM S HEGDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190358@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHUBHAM KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191005@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAHIL KUMAR JANGIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191271@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARTH MALU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190683@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YUVRAJ SINGH LATHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190941@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 12:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VINAYAK TYAGI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191008@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KANISHK JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190641@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAMAN NANDWANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190832@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 9:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VANSH CHHABRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191039@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIMANSHU JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190737@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATHIF K P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190764@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KRISHNA DWAIPAYANA MAHARSHI J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190712@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RISHI GARG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190642@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animesh Bhargava</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190545@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aviral Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190411@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manan Agrawal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190465@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JYOTI DIXIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190867@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARI SANKAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190564@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DARSH MUKESH MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190663@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 5:30:00 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1174,68 +1402,68 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>12</x:v>
@@ -1259,111 +1487,111 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>12</x:v>
@@ -1387,15 +1615,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>12</x:v>
@@ -1419,47 +1647,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>12</x:v>
@@ -1483,15 +1711,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>12</x:v>
@@ -1515,15 +1743,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>12</x:v>
@@ -1547,47 +1775,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>12</x:v>
@@ -1611,47 +1839,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
       <x:c r="A20" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J20" s="0" t="s">
-        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
       <x:c r="A21" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>12</x:v>
@@ -1675,15 +1903,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
       <x:c r="A22" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>12</x:v>
@@ -1707,30 +1935,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10">
       <x:c r="A23" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F23" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G23" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H23" s="0" t="b">
         <x:v>1</x:v>
@@ -1739,21 +1967,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>13</x:v>
@@ -1768,18 +1996,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10">
       <x:c r="A25" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>12</x:v>
@@ -1803,47 +2031,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J26" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10">
       <x:c r="A27" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>12</x:v>
@@ -1867,47 +2095,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>12</x:v>
@@ -1931,47 +2159,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J30" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>12</x:v>
@@ -1995,15 +2223,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>12</x:v>
@@ -2027,21 +2255,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>13</x:v>
@@ -2056,18 +2284,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>12</x:v>
@@ -2091,15 +2319,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
       <x:c r="A35" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>12</x:v>
@@ -2123,15 +2351,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
       <x:c r="A36" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>12</x:v>
@@ -2155,15 +2383,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
       <x:c r="A37" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>12</x:v>
@@ -2187,15 +2415,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
       <x:c r="A38" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>12</x:v>
@@ -2219,15 +2447,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
       <x:c r="A39" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>12</x:v>
@@ -2251,15 +2479,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
       <x:c r="A40" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>12</x:v>
@@ -2283,15 +2511,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
       <x:c r="A41" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>12</x:v>
@@ -2315,15 +2543,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10">
       <x:c r="A42" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>12</x:v>
@@ -2347,15 +2575,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10">
       <x:c r="A43" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>12</x:v>
@@ -2379,15 +2607,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10">
       <x:c r="A44" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>12</x:v>
@@ -2411,15 +2639,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
       <x:c r="A45" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>12</x:v>
@@ -2443,15 +2671,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:10">
       <x:c r="A46" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>12</x:v>
@@ -2475,15 +2703,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
       <x:c r="A47" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>12</x:v>
@@ -2507,15 +2735,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
       <x:c r="A48" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>12</x:v>
@@ -2539,15 +2767,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
       <x:c r="A49" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>12</x:v>
@@ -2571,15 +2799,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
       <x:c r="A50" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>12</x:v>
@@ -2603,123 +2831,123 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J50" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
       <x:c r="A51" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E51" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F51" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J51" s="0" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
       <x:c r="A52" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F52" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G52" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H52" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
       <x:c r="A53" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F53" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G53" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H53" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10">
       <x:c r="A54" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F54" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G54" s="0" t="b">
         <x:v>0</x:v>
@@ -2728,18 +2956,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10">
       <x:c r="A55" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>12</x:v>
@@ -2763,15 +2991,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10">
       <x:c r="A56" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>12</x:v>
@@ -2795,15 +3023,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10">
       <x:c r="A57" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>12</x:v>
@@ -2827,15 +3055,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:10">
       <x:c r="A58" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>12</x:v>
@@ -2859,15 +3087,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10">
       <x:c r="A59" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>12</x:v>
@@ -2891,15 +3119,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
       <x:c r="A60" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>12</x:v>
@@ -2923,15 +3151,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
       <x:c r="A61" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>12</x:v>
@@ -2955,15 +3183,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
       <x:c r="A62" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>12</x:v>
@@ -2987,59 +3215,59 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10">
       <x:c r="A63" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="C63" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D63" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E63" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F63" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G63" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H63" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I63" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J63" s="0" t="s">
-        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
       <x:c r="A64" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F64" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G64" s="0" t="b">
         <x:v>0</x:v>
@@ -3048,18 +3276,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10">
       <x:c r="A65" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>12</x:v>
@@ -3083,15 +3311,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
       <x:c r="A66" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>12</x:v>
@@ -3115,15 +3343,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
       <x:c r="A67" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>12</x:v>
@@ -3147,15 +3375,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
       <x:c r="A68" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>12</x:v>
@@ -3179,47 +3407,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10">
       <x:c r="A69" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F69" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G69" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H69" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10">
       <x:c r="A70" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>12</x:v>
@@ -3243,15 +3471,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
       <x:c r="A71" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>12</x:v>
@@ -3275,15 +3503,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10">
       <x:c r="A72" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>12</x:v>
@@ -3307,15 +3535,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:10">
       <x:c r="A73" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>12</x:v>
@@ -3339,111 +3567,111 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10">
       <x:c r="A74" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J74" s="0" t="s">
         <x:v>187</x:v>
-      </x:c>
-      <x:c r="C74" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D74" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E74" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F74" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G74" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I74" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J74" s="0" t="s">
-        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10">
       <x:c r="A75" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D75" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E75" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F75" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G75" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H75" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I75" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10">
       <x:c r="A76" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F76" s="0" t="b">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G76" s="0" t="b">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:10">
       <x:c r="A77" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>12</x:v>
@@ -3467,15 +3695,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
       <x:c r="A78" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>12</x:v>
@@ -3499,15 +3727,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10">
       <x:c r="A79" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>12</x:v>
@@ -3531,15 +3759,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10">
       <x:c r="A80" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>12</x:v>
@@ -3563,15 +3791,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:10">
       <x:c r="A81" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>12</x:v>
@@ -3595,15 +3823,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:10">
       <x:c r="A82" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>12</x:v>
@@ -3627,27 +3855,27 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:10">
       <x:c r="A83" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F83" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G83" s="0" t="b">
         <x:v>0</x:v>
@@ -3656,10 +3884,1066 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:10">
+      <x:c r="A84" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:10">
+      <x:c r="A85" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J85" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:10">
+      <x:c r="A86" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I86" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J86" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:10">
+      <x:c r="A87" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I87" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J87" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:10">
+      <x:c r="A88" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I88" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J88" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:10">
+      <x:c r="A89" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J89" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:10">
+      <x:c r="A90" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H90" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I90" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J90" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:10">
+      <x:c r="A91" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H91" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I91" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J91" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:10">
+      <x:c r="A92" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J92" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:10">
+      <x:c r="A93" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H93" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I93" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J93" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:10">
+      <x:c r="A94" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I94" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J94" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:10">
+      <x:c r="A95" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H95" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I95" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J95" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:10">
+      <x:c r="A96" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J96" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:10">
+      <x:c r="A97" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J97" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:10">
+      <x:c r="A98" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I98" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J98" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:10">
+      <x:c r="A99" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I99" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J99" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:10">
+      <x:c r="A100" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I100" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J100" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:10">
+      <x:c r="A101" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I101" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J101" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:10">
+      <x:c r="A102" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I102" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J102" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:10">
+      <x:c r="A103" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H103" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I103" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J103" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:10">
+      <x:c r="A104" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H104" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I104" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J104" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:10">
+      <x:c r="A105" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I105" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J105" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:10">
+      <x:c r="A106" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H106" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I106" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J106" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:10">
+      <x:c r="A107" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H107" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I107" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J107" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:10">
+      <x:c r="A108" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H108" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I108" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J108" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:10">
+      <x:c r="A109" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H109" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I109" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J109" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:10">
+      <x:c r="A110" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H110" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I110" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J110" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:10">
+      <x:c r="A111" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H111" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I111" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J111" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:10">
+      <x:c r="A112" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H112" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I112" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J112" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:10">
+      <x:c r="A113" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H113" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I113" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J113" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:10">
+      <x:c r="A114" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H114" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I114" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J114" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:10">
+      <x:c r="A115" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F115" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H115" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I115" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J115" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:10">
+      <x:c r="A116" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H116" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I116" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J116" s="0" t="s">
+        <x:v>285</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ADMIN_ExcelFile.xlsx
+++ b/ADMIN_ExcelFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243" count="243">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385" count="385">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -85,6 +85,18 @@
     <x:t>f20190710@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
+    <x:t>PARTIAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DONE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/14/2020, 11:13:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 4:00:00 PM</x:t>
+  </x:si>
+  <x:si>
     <x:t>SIDDARTH TODI</x:t>
   </x:si>
   <x:si>
@@ -94,12 +106,6 @@
     <x:t>COMPLETE</x:t>
   </x:si>
   <x:si>
-    <x:t>DONE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/14/2020, 11:13:37 PM</x:t>
-  </x:si>
-  <x:si>
     <x:t>9/17/2021, 2:30:00 PM</x:t>
   </x:si>
   <x:si>
@@ -118,760 +124,1561 @@
     <x:t>f20190592@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
+    <x:t>9/17/2021, 1:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hrithik Raj Gupta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190995@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 12:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bhumik Joshi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190199@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 2:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIPUNJAY NARANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190977@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 11:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARANSH NIRAJKUMAR JHUNJHUNWALA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191001@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
     <x:t>9/1/2021, 2:22:03 PM</x:t>
   </x:si>
   <x:si>
-    <x:t>Hrithik Raj Gupta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190995@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/19/2021, 12:00:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bhumik Joshi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190199@pilani.bits-pilani.ac.in</x:t>
+    <x:t>SMRITI MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191261@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 3:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADITYA SHARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190812@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 7:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIRESH KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190772@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/20/2021, 6:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NISHTHA PAREEK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191044@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sai Sudeep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190515@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRADYUT KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190943@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 2:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VISHAL PUNDHIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191055@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 2:48:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMBHAV JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190192@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIDDHESH KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191043@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 2:30:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akshat Garg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190695@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tanmay Dhama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190591@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAILED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 9:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARPIT SINGH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190956@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 1:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sanskar Jhajharia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190148@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 2:53:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAM SUKETU MEHTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190510@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HITANSHU HITANSHU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190687@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kapil Raghunandan Tripathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190852@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/17/2021, 5:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHAVIKA GOPALANI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190971@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 2:54:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanmugha Balan S V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190571@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAVISH JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190492@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 8:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ayushi Kamal Sharma</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191265@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 3:00:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pranay Bansal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190471@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HRITAV SINGH SOLANKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191049@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 3:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARYAN MOHAKUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190965@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASTITVA AGNIHOTRI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190522@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAIDEEP GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190702@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Priyanshu Shukla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190558@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aditya Rao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190576@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKSHAT JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190987@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANIRUDDH BAKSHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190912@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANAS DESAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190659@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 9:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YASH SATISH THAKKER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191026@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 5:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chirag Matai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190969@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pranay Venkatesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191004@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISHAAN SARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190559@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 5:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHAYAN MAJUMDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190259@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYUSH SHARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191027@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 3:00:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAKSHAM MAHAJAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190627@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAYANSH GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190528@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 3:24:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUNDU KARTHIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191042@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIDDHAM JASORIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190946@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 10:30:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UTKARSH ADHIKARI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191050@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 1:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPARSH GOYAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190494@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 6:30:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MUSKAAN GARG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190940@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prakarsh Mehrotra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190738@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUDHANSHU MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190750@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KSHITIJ SRIVASTAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190811@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKARSH CHANDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190508@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T P CHANDRA CHUDAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191030@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIVYANSHU PRAKASH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190678@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 3:40:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANSHAL SHUKLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190363@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarthak Vatsa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190610@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PULKIT GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190481@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KITH GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190628@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 3:53:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMAAN ZAFAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190463@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUBHAM PATEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190201@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:04:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Krish Vora</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190819@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:09:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAURAV MASAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190899@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 12:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABHIMANYU JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190446@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:13:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEEL MALANI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190717@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEHAL GUPTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190990@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:18:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PALAK SOLANKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191053@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRANAV SHANMUKH YELLAYI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190485@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAMAN MEHTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190981@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 4:18:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SRINIVASA RAJU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190346@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ishan Rai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190504@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 10:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AARYAN AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190713@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAJAN SAHU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190572@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARNAV AGRAWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190966@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:33:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jagr!T PareeK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191024@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 4:33:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHITWAN AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190623@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:40:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHAVY GOEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190586@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 4:50:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rakshay Goyal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190490@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMIT SANJEEV DOSI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190643@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaurya Marwah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190459@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MRIDUL BHATIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190410@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANANY PORWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190894@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DISHANT PRADEEP PODDAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191032@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARSH AGRAWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190996@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DHRUV AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190892@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 4:50:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIKUNJ ASHISH MEHADIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190343@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RISHITA AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190989@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 12:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nitya Gandhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191003@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 8:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHIT GEOZU JAMES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190921@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HRIDAY KEDIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190964@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2021, 5:54:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kushagra Chhabra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190786@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/25/2021, 1:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRANAM S HEGDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190358@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHUBHAM KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191005@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAHIL KUMAR JANGIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191271@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARTH MALU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190683@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YUVRAJ SINGH LATHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190941@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 12:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VINAYAK TYAGI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191008@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KANISHK JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190641@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAMAN NANDWANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190832@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 9:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VANSH CHHABRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191039@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIMANSHU JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190737@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATHIF K P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190764@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KRISHNA DWAIPAYANA MAHARSHI J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190712@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RISHI GARG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190642@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Animesh Bhargava</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190545@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aviral Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190411@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 12:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manan Agrawal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190465@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JYOTI DIXIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190867@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARI SANKAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190564@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DARSH MUKESH MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190663@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 5:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YASH KHANDELWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191006@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SNEHIL S KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190985@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHIVANSH JOHARI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190503@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 3:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VEDANT TRIPATHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190582@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 2:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YASH RAJ MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190645@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hardik Gupta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190679@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATMESH MAHAPATRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190560@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 6:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vaibhav Prabhu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190593@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIPUL VIVEK WALUNJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190607@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANISH MITTAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190658@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMITABH S MISHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190800@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIBGYOR R SINGHVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190326@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRANSHU KHARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190518@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/20/2021, 1:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUJAY PATNI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190575@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKSHANSH BHATT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190754@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUDITI KISOR PRASAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190629@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABHISHEK UPADHYAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190692@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADHYAN ANUJ AHUJA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190548@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHUBH VARSHNEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190771@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SISTLA AJAY KARTHIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191022@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRANAV KUMAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190860@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 12:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHUBHAM SHARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190925@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 10:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUJAY RASTOGI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190741@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAVIDI SAI KIRAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191015@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAHIL CHOUDHARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190998@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISHA SRIVASTAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191034@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sushrut Patwardhan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190382@pilani.bits-pilani.ac.in</x:t>
   </x:si>
   <x:si>
     <x:t>9/19/2021, 7:00:00 PM</x:t>
   </x:si>
   <x:si>
-    <x:t>RIPUNJAY NARANG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190977@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SARANSH NIRAJKUMAR JHUNJHUNWALA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191001@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMRITI MISHRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191261@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADITYA SHARMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190812@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/15/2021, 7:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIRESH KUMAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190772@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NISHTHA PAREEK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191044@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sai Sudeep</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190515@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRADYUT KUMAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190943@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/15/2021, 2:00:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VISHAL PUNDHIR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191055@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 2:48:22 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAMBHAV JAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190192@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PARTIAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SIDDHESH KUMAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191043@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akshat Garg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190695@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tanmay Dhama</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190591@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAILED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/18/2021, 9:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARPIT SINGH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190956@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/18/2021, 1:00:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sanskar Jhajharia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190148@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 2:53:36 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAM SUKETU MEHTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190510@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HITANSHU HITANSHU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190687@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kapil Raghunandan Tripathy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190852@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/17/2021, 5:00:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHAVIKA GOPALANI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190971@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 2:54:27 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shanmugha Balan S V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190571@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAVISH JAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190492@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ayushi Kamal Sharma</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191265@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 3:00:35 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pranay Bansal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190471@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HRITAV SINGH SOLANKI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191049@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARYAN MOHAKUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190965@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASTITVA AGNIHOTRI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190522@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAIDEEP GUPTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190702@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Priyanshu Shukla</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190558@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aditya Rao</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190576@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AKSHAT JAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190987@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANIRUDDH BAKSHI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190912@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANAS DESAI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190659@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YASH SATISH THAKKER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191026@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chirag Matai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190969@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pranay Venkatesh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191004@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ISHAAN SARMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190559@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHAYAN MAJUMDER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190259@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AYUSH SHARMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191027@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAKSHAM MAHAJAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190627@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NAYANSH GUPTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190528@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 3:24:36 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GUNDU KARTHIK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191042@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SIDDHAM JASORIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190946@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/15/2021, 10:30:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UTKARSH ADHIKARI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191050@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/19/2021, 1:00:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPARSH GOYAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190494@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/15/2021, 6:30:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MUSKAAN GARG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190940@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prakarsh Mehrotra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190738@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUDHANSHU MISHRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190750@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KSHITIJ SRIVASTAVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190811@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AKARSH CHANDRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190508@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T P CHANDRA CHUDAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191030@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIVYANSHU PRAKASH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190678@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 3:40:06 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANSHAL SHUKLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190363@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sarthak Vatsa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190610@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PULKIT GUPTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190481@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/16/2021, 3:00:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KITH GUPTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190628@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 3:53:03 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMAAN ZAFAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190463@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:04:31 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUBHAM PATEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190201@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Krish Vora</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190819@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:09:44 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAURAV MASAND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190899@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:10:56 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABHIMANYU JAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190446@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:13:34 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NEEL MALANI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190717@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NEHAL GUPTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190990@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:18:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PALAK SOLANKI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191053@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/18/2021, 11:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRANAV SHANMUKH YELLAYI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190485@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NAMAN MEHTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190981@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/19/2021, 4:18:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SRINIVASA RAJU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190346@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ishan Rai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190504@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AARYAN AGARWAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190713@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAJAN SAHU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190572@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARNAV AGRAWAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190966@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:33:46 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jagr!T PareeK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191024@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHITWAN AGARWAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190623@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:40:11 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHAVY GOEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190586@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 4:50:29 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rakshay Goyal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190490@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAMIT SANJEEV DOSI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190643@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shaurya Marwah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190459@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MRIDUL BHATIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190410@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANANY PORWAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190894@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DISHANT PRADEEP PODDAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191032@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HARSH AGRAWAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190996@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DHRUV AGARWAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190892@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NIKUNJ ASHISH MEHADIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190343@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RISHITA AGARWAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190989@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nitya Gandhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191003@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAHIT GEOZU JAMES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190921@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 5:52:37 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HRIDAY KEDIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190964@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/1/2021, 5:54:48 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kushagra Chhabra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190786@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRANAM S HEGDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190358@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHUBHAM KUMAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191005@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAHIL KUMAR JANGIR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191271@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PARTH MALU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190683@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YUVRAJ SINGH LATHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190941@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/18/2021, 12:00:00 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VINAYAK TYAGI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191008@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KANISHK JAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190641@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NAMAN NANDWANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190832@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/15/2021, 9:00:00 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VANSH CHHABRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20191039@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HIMANSHU JAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190737@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATHIF K P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190764@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KRISHNA DWAIPAYANA MAHARSHI J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190712@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RISHI GARG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190642@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Animesh Bhargava</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190545@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aviral Omar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190411@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manan Agrawal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190465@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JYOTI DIXIT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190867@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HARI SANKAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190564@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DARSH MUKESH MISHRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f20190663@pilani.bits-pilani.ac.in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/19/2021, 5:30:00 PM</x:t>
+    <x:t>Shikhar Uttam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190802@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tanishq Duhan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190636@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHRISHTI SINHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190677@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SATYAM SRIVASTAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190188@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 4:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AARYAN CHARAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190179@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VAISHNAVI RAGHAV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190955@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RUCHIR KUMBHARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190650@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Krrish Goyal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190668@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANI SAI GUPTHA VANAPARTHY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190866@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANVESHA DUBEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190831@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aman patwa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191028@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARPIT SHRIVASTAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190818@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANMAY FULARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190611@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEJAS GIRISH DESHPANDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190947@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UDAY SINGLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190023@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADITYA NAIDU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190456@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARTHAK CHOUDHARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190112@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VENKATESWARAN - S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190913@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEHUL NAHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190919@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 1:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAKSHMAN KARTHEEK BANTUPALLI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190631@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 7:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANSHUL SINHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190180@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/2/2021, 3:29:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHIVANK NIGAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190854@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vidushi Sahay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191007@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LATIKA NARVEKAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190986@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AVIRAL JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190317@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABHISHEK DAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190439@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 6:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prathamesh Baisware</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190570@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARYAN VERMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190616@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANUSHRI TRIPATHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190617@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TARUN KAUSHIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190585@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAMAN SACHDEVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190352@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROHAN KUNWAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190666@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sahil Gupta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190154@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHANU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190418@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kirat Chawla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190735@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ashwin M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190957@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YASH SANGHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190758@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAKSHAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190307@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UTKARSH SINGH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190911@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 7:30:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANDRA SEKHAR REDDY E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190634@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARYAN GAUTAM NADKARNI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190406@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHUBHAM PANDEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190982@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/15/2021, 11:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Utkarsh Chaudhary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190856@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 7:00:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UTKARSH YASHVARDHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190704@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAIJAL BANSAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190567@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/18/2021, 3:29:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANUSHKA JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190904@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HRISHIT TAMBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190807@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A SUDARSHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190744@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DARSHAN V SIMSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190721@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHREYA CHOUHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190784@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/20/2021, 12:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VASU SWAROOP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190656@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lavanya Sureka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190620@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMEY AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190731@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PANYAM SHREYAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190183@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANN NARANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190790@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISHVIT BHASIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190226@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VANSH BANSAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190621@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soham Kulkarni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191002@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CYRIL BENNY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190584@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIHIR SRIVASTAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190689@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S ADARSH KUMAR REDDY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191054@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAGHUVAMSHI TIPPARAJU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191124@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYUSHA NAYAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190369@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHRUTI GANGWAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190920@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMIKHYA NAYAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190845@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YADBEER SHARMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190521@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 4:00:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YASH JAJOO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190405@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190351@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APOORV MULLICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190749@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIMRIDHI GAIND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190935@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANGEL MARIA BABY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190997@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AKSHAT KALRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190951@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KUNAL MALL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190431@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Darshan Walchale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190569@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RICHA PRASAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190732@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARIZMA KHURANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190708@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHOBHIT JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190385@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UJJWAL JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190647@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anirudh TK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190236@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/19/2021, 10:30:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABHIJITH M B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190688@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYUSH SUMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190383@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYUSH AGARWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190652@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rishabh Singhal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190876@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VINAY JAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190728@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mehul Jain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191029@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCHIT AGRAWAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20191048@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saksham Jain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190160@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARUN JAGANNATH KAUSHIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190681@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIKITHA KANNAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190760@pilani.bits-pilani.ac.in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISHAN GARG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f20190349@pilani.bits-pilani.ac.in</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1370,228 +2177,228 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F5" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H5" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F8" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>12</x:v>
@@ -1615,111 +2422,111 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F13" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G13" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H13" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F15" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H15" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>12</x:v>
@@ -1743,15 +2550,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>12</x:v>
@@ -1775,47 +2582,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>12</x:v>
@@ -1839,21 +2646,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
       <x:c r="A20" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>13</x:v>
@@ -1862,94 +2669,94 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G20" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
       <x:c r="A21" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F21" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
       <x:c r="A22" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J22" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10">
       <x:c r="A23" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>13</x:v>
@@ -1967,21 +2774,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>13</x:v>
@@ -1996,18 +2803,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10">
       <x:c r="A25" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>12</x:v>
@@ -2031,15 +2838,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>12</x:v>
@@ -2063,15 +2870,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10">
       <x:c r="A27" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>12</x:v>
@@ -2095,47 +2902,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>12</x:v>
@@ -2159,79 +2966,79 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F30" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G30" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H30" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F31" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G31" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H31" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>12</x:v>
@@ -2255,21 +3062,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>13</x:v>
@@ -2284,50 +3091,50 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F34" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G34" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H34" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
       <x:c r="A35" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>12</x:v>
@@ -2351,47 +3158,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
       <x:c r="A36" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J36" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
       <x:c r="A37" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>12</x:v>
@@ -2415,15 +3222,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
       <x:c r="A38" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>12</x:v>
@@ -2447,15 +3254,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
       <x:c r="A39" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>12</x:v>
@@ -2479,15 +3286,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
       <x:c r="A40" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>12</x:v>
@@ -2511,15 +3318,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
       <x:c r="A41" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>12</x:v>
@@ -2543,79 +3350,79 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10">
       <x:c r="A42" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F42" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G42" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10">
       <x:c r="A43" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F43" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G43" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H43" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10">
       <x:c r="A44" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>12</x:v>
@@ -2639,79 +3446,79 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
       <x:c r="A45" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F45" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G45" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H45" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:10">
       <x:c r="A46" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F46" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G46" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H46" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
       <x:c r="A47" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>12</x:v>
@@ -2735,47 +3542,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
       <x:c r="A48" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F48" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G48" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H48" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
       <x:c r="A49" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>12</x:v>
@@ -2799,47 +3606,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
       <x:c r="A50" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F50" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H50" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J50" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
       <x:c r="A51" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>12</x:v>
@@ -2863,143 +3670,143 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
       <x:c r="A52" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F52" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G52" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I52" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
       <x:c r="A53" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D53" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E53" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F53" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G53" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H53" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I53" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10">
       <x:c r="A54" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D54" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E54" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F54" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10">
       <x:c r="A55" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D55" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E55" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F55" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G55" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H55" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I55" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J55" s="0" t="s">
-        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10">
       <x:c r="A56" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>12</x:v>
@@ -3023,15 +3830,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10">
       <x:c r="A57" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>12</x:v>
@@ -3055,15 +3862,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:10">
       <x:c r="A58" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>12</x:v>
@@ -3087,15 +3894,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10">
       <x:c r="A59" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>12</x:v>
@@ -3119,15 +3926,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
       <x:c r="A60" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>12</x:v>
@@ -3151,15 +3958,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
       <x:c r="A61" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>12</x:v>
@@ -3183,15 +3990,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
       <x:c r="A62" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>12</x:v>
@@ -3215,15 +4022,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10">
       <x:c r="A63" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>12</x:v>
@@ -3247,47 +4054,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
       <x:c r="A64" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D64" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E64" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F64" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G64" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H64" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I64" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10">
       <x:c r="A65" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>12</x:v>
@@ -3311,47 +4118,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
       <x:c r="A66" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F66" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G66" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H66" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
       <x:c r="A67" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>12</x:v>
@@ -3375,15 +4182,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
       <x:c r="A68" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>12</x:v>
@@ -3407,47 +4214,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10">
       <x:c r="A69" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D69" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E69" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F69" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G69" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H69" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I69" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10">
       <x:c r="A70" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>12</x:v>
@@ -3471,27 +4278,27 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
       <x:c r="A71" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F71" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G71" s="0" t="b">
         <x:v>0</x:v>
@@ -3500,18 +4307,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10">
       <x:c r="A72" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>12</x:v>
@@ -3535,111 +4342,111 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:10">
       <x:c r="A73" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F73" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G73" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H73" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10">
       <x:c r="A74" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D74" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E74" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F74" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G74" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I74" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10">
       <x:c r="A75" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D75" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E75" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F75" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G75" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H75" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I75" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10">
       <x:c r="A76" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>12</x:v>
@@ -3663,27 +4470,27 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:10">
       <x:c r="A77" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F77" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G77" s="0" t="b">
         <x:v>0</x:v>
@@ -3692,50 +4499,50 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
       <x:c r="A78" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F78" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G78" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H78" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10">
       <x:c r="A79" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>12</x:v>
@@ -3759,27 +4566,27 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10">
       <x:c r="A80" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F80" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G80" s="0" t="b">
         <x:v>0</x:v>
@@ -3788,33 +4595,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:10">
       <x:c r="A81" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F81" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G81" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H81" s="0" t="b">
         <x:v>1</x:v>
@@ -3823,15 +4630,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:10">
       <x:c r="A82" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>12</x:v>
@@ -3855,47 +4662,47 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:10">
       <x:c r="A83" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D83" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E83" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F83" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G83" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H83" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I83" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:10">
       <x:c r="A84" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>12</x:v>
@@ -3919,15 +4726,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:10">
       <x:c r="A85" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>12</x:v>
@@ -3951,15 +4758,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:10">
       <x:c r="A86" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>12</x:v>
@@ -3983,15 +4790,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:10">
       <x:c r="A87" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>12</x:v>
@@ -4015,15 +4822,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J87" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:10">
       <x:c r="A88" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>12</x:v>
@@ -4047,91 +4854,91 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:10">
       <x:c r="A89" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J89" s="0" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="C89" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D89" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E89" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F89" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G89" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H89" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I89" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J89" s="0" t="s">
-        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:10">
       <x:c r="A90" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F90" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G90" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H90" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:10">
       <x:c r="A91" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F91" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G91" s="0" t="b">
         <x:v>0</x:v>
@@ -4140,18 +4947,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:10">
       <x:c r="A92" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>12</x:v>
@@ -4175,111 +4982,111 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J92" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:10">
       <x:c r="A93" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F93" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G93" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H93" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:10">
       <x:c r="A94" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F94" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G94" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H94" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J94" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:10">
       <x:c r="A95" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F95" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G95" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H95" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:10">
       <x:c r="A96" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>12</x:v>
@@ -4303,27 +5110,27 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J96" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:10">
       <x:c r="A97" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F97" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G97" s="0" t="b">
         <x:v>0</x:v>
@@ -4332,18 +5139,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:10">
       <x:c r="A98" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>12</x:v>
@@ -4367,15 +5174,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J98" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:10">
       <x:c r="A99" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>12</x:v>
@@ -4399,15 +5206,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J99" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:10">
       <x:c r="A100" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>12</x:v>
@@ -4431,15 +5238,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J100" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:10">
       <x:c r="A101" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>12</x:v>
@@ -4463,79 +5270,79 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:10">
       <x:c r="A102" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I102" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D102" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E102" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F102" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G102" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H102" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I102" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="J102" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:10">
       <x:c r="A103" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H103" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I103" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J103" s="0" t="s">
         <x:v>256</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="C103" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D103" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E103" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F103" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G103" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H103" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I103" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J103" s="0" t="s">
-        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:10">
       <x:c r="A104" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>12</x:v>
@@ -4559,21 +5366,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J104" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:10">
       <x:c r="A105" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
         <x:v>13</x:v>
@@ -4588,18 +5395,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:10">
       <x:c r="A106" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>12</x:v>
@@ -4623,15 +5430,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J106" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:10">
       <x:c r="A107" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>12</x:v>
@@ -4655,15 +5462,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J107" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:10">
       <x:c r="A108" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>12</x:v>
@@ -4687,15 +5494,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J108" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:10">
       <x:c r="A109" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>12</x:v>
@@ -4719,15 +5526,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J109" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:10">
       <x:c r="A110" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>12</x:v>
@@ -4751,15 +5558,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J110" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:10">
       <x:c r="A111" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>12</x:v>
@@ -4783,79 +5590,79 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J111" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:10">
       <x:c r="A112" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F112" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G112" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H112" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I112" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J112" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:10">
       <x:c r="A113" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F113" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G113" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H113" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I113" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J113" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:10">
       <x:c r="A114" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>12</x:v>
@@ -4879,71 +5686,3815 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:10">
       <x:c r="A115" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F115" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G115" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H115" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I115" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J115" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:10">
       <x:c r="A116" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H116" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I116" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D116" s="0" t="s">
+      <x:c r="J116" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:10">
+      <x:c r="A117" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F117" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H117" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I117" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J117" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:10">
+      <x:c r="A118" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F118" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H118" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I118" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J118" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:10">
+      <x:c r="A119" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F119" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H119" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I119" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J119" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:10">
+      <x:c r="A120" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F120" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H120" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I120" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J120" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:10">
+      <x:c r="A121" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F121" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H121" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I121" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J121" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:10">
+      <x:c r="A122" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F122" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H122" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I122" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J122" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:10">
+      <x:c r="A123" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H123" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I123" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J123" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:10">
+      <x:c r="A124" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F124" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H124" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I124" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J124" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:10">
+      <x:c r="A125" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F125" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H125" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I125" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J125" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:10">
+      <x:c r="A126" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D126" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E126" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F126" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G126" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H126" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I126" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J126" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:10">
+      <x:c r="A127" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F127" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G127" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H127" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I127" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J127" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:10">
+      <x:c r="A128" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F128" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G128" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H128" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I128" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J128" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:10">
+      <x:c r="A129" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F129" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G129" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H129" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I129" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J129" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:10">
+      <x:c r="A130" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F130" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G130" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H130" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I130" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J130" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:10">
+      <x:c r="A131" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F131" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H131" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I131" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J131" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:10">
+      <x:c r="A132" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H132" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I132" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J132" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:10">
+      <x:c r="A133" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F133" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G133" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H133" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I133" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J133" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:10">
+      <x:c r="A134" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F134" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G134" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H134" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I134" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J134" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:10">
+      <x:c r="A135" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F135" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G135" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H135" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I135" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J135" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:10">
+      <x:c r="A136" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F136" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G136" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H136" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I136" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J136" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:10">
+      <x:c r="A137" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D137" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F137" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G137" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H137" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I137" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J137" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:10">
+      <x:c r="A138" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F138" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G138" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H138" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I138" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J138" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:10">
+      <x:c r="A139" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F139" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G139" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H139" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I139" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J139" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:10">
+      <x:c r="A140" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F140" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G140" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H140" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I140" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J140" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:10">
+      <x:c r="A141" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F141" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G141" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H141" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I141" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J141" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:10">
+      <x:c r="A142" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F142" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G142" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H142" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I142" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J142" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:10">
+      <x:c r="A143" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F143" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G143" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H143" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I143" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J143" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:10">
+      <x:c r="A144" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F144" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G144" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H144" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I144" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J144" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:10">
+      <x:c r="A145" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F145" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G145" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H145" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I145" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J145" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:10">
+      <x:c r="A146" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F146" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G146" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H146" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I146" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J146" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:10">
+      <x:c r="A147" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F147" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G147" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H147" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I147" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J147" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:10">
+      <x:c r="A148" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F148" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G148" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H148" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I148" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J148" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:10">
+      <x:c r="A149" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F149" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G149" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H149" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I149" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J149" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:10">
+      <x:c r="A150" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F150" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G150" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H150" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I150" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J150" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:10">
+      <x:c r="A151" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F151" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G151" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H151" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I151" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J151" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:10">
+      <x:c r="A152" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F152" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G152" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H152" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I152" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J152" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:10">
+      <x:c r="A153" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F153" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G153" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H153" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I153" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J153" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:10">
+      <x:c r="A154" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F154" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G154" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H154" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I154" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J154" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:10">
+      <x:c r="A155" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F155" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G155" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H155" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I155" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J155" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:10">
+      <x:c r="A156" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D156" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E156" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F156" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G156" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H156" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I156" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J156" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:10">
+      <x:c r="A157" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F157" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G157" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H157" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I157" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J157" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:10">
+      <x:c r="A158" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F158" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G158" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H158" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I158" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J158" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:10">
+      <x:c r="A159" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F159" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G159" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H159" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I159" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J159" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:10">
+      <x:c r="A160" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F160" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G160" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H160" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I160" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J160" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:10">
+      <x:c r="A161" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F161" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G161" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H161" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I161" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J161" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:10">
+      <x:c r="A162" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F162" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G162" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H162" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I162" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J162" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:10">
+      <x:c r="A163" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F163" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G163" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H163" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I163" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J163" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:10">
+      <x:c r="A164" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F164" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G164" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H164" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I164" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J164" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:10">
+      <x:c r="A165" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F165" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G165" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H165" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I165" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J165" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:10">
+      <x:c r="A166" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D166" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E166" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F166" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G166" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H166" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I166" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J166" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:10">
+      <x:c r="A167" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D167" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E167" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F167" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G167" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H167" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I167" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J167" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:10">
+      <x:c r="A168" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D168" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E168" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F168" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G168" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H168" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I168" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J168" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:10">
+      <x:c r="A169" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="C169" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D169" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E169" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F169" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G169" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H169" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I169" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J169" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:10">
+      <x:c r="A170" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="C170" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D170" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E170" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F170" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G170" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H170" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I170" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J170" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:10">
+      <x:c r="A171" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="C171" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D171" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E171" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F171" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G171" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H171" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I171" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J171" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:10">
+      <x:c r="A172" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="C172" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D172" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E172" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F172" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G172" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H172" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I172" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J172" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:10">
+      <x:c r="A173" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="C173" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D173" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E173" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F173" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G173" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H173" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I173" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J173" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:10">
+      <x:c r="A174" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="C174" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D174" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E174" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F174" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G174" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H174" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I174" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J174" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:10">
+      <x:c r="A175" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="C175" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D175" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E175" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F175" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G175" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H175" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I175" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J175" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:10">
+      <x:c r="A176" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="C176" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D176" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E176" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F176" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G176" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H176" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I176" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J176" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:10">
+      <x:c r="A177" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="C177" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D177" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E177" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F177" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G177" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H177" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I177" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J177" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:10">
+      <x:c r="A178" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="C178" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D178" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E178" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F178" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G178" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H178" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I178" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J178" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:10">
+      <x:c r="A179" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="C179" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D179" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E179" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F179" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G179" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H179" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I179" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J179" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:10">
+      <x:c r="A180" s="0" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="C180" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D180" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E180" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F180" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G180" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H180" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I180" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J180" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:10">
+      <x:c r="A181" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="C181" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D181" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E181" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F181" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G181" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H181" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I181" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J181" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:10">
+      <x:c r="A182" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="C182" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D182" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E182" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F182" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G182" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H182" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I182" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J182" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:10">
+      <x:c r="A183" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="C183" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D183" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E183" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F183" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G183" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H183" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I183" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J183" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:10">
+      <x:c r="A184" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="C184" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D184" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E184" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F184" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G184" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H184" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I184" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J184" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:10">
+      <x:c r="A185" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="C185" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D185" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E185" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F185" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G185" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H185" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I185" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J185" s="0" t="s">
+        <x:v>453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:10">
+      <x:c r="A186" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="C186" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D186" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E186" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F186" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G186" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H186" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I186" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J186" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:10">
+      <x:c r="A187" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="C187" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D187" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E187" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F187" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G187" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H187" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I187" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J187" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:10">
+      <x:c r="A188" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="C188" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D188" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E188" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F188" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G188" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H188" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I188" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J188" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:10">
+      <x:c r="A189" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="C189" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D189" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E189" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F189" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G189" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H189" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I189" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J189" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:10">
+      <x:c r="A190" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="C190" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D190" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E190" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F190" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G190" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H190" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I190" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J190" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:10">
+      <x:c r="A191" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="C191" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D191" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E191" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F191" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G191" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H191" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I191" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J191" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:10">
+      <x:c r="A192" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="C192" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D192" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E192" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F192" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G192" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H192" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I192" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J192" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:10">
+      <x:c r="A193" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="C193" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D193" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E193" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F193" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G193" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H193" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I193" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J193" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:10">
+      <x:c r="A194" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="C194" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D194" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E194" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F194" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G194" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H194" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I194" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J194" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:10">
+      <x:c r="A195" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="C195" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D195" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E195" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F195" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G195" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H195" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I195" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J195" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:10">
+      <x:c r="A196" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C196" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D196" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E196" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F196" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G196" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H196" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I196" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J196" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:10">
+      <x:c r="A197" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="C197" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D197" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E197" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F197" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G197" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H197" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I197" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J197" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:10">
+      <x:c r="A198" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="C198" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D198" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E198" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F198" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G198" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H198" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I198" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J198" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:10">
+      <x:c r="A199" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="C199" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D199" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E199" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F199" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G199" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H199" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I199" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J199" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:10">
+      <x:c r="A200" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="C200" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D200" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E200" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F200" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G200" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H200" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I200" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J200" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:10">
+      <x:c r="A201" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="C201" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D201" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E201" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F201" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G201" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H201" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I201" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J201" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:10">
+      <x:c r="A202" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="C202" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D202" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E202" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F202" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G202" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H202" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I202" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J202" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:10">
+      <x:c r="A203" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="C203" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D203" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E203" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F203" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G203" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H203" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I203" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J203" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:10">
+      <x:c r="A204" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="C204" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D204" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E204" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F204" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G204" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H204" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I204" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J204" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:10">
+      <x:c r="A205" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="C205" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D205" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E205" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F205" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G205" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H205" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I205" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J205" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:10">
+      <x:c r="A206" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="C206" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D206" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E206" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F206" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G206" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H206" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I206" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J206" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:10">
+      <x:c r="A207" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="C207" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D207" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E207" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F207" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G207" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H207" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I207" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J207" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:10">
+      <x:c r="A208" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="C208" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D208" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E208" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F208" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G208" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H208" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I208" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J208" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:10">
+      <x:c r="A209" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="C209" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D209" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E209" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F209" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G209" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H209" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I209" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J209" s="0" t="s">
+        <x:v>505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:10">
+      <x:c r="A210" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="C210" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D210" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E210" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F210" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G210" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H210" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I210" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J210" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E116" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F116" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G116" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H116" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I116" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J116" s="0" t="s">
-        <x:v>285</x:v>
+    </x:row>
+    <x:row r="211" spans="1:10">
+      <x:c r="A211" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="C211" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D211" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E211" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F211" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G211" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H211" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I211" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J211" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:10">
+      <x:c r="A212" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="C212" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D212" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E212" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F212" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G212" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H212" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I212" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J212" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:10">
+      <x:c r="A213" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="C213" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D213" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E213" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F213" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G213" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H213" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I213" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J213" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:10">
+      <x:c r="A214" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="C214" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D214" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E214" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F214" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G214" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H214" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I214" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J214" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:10">
+      <x:c r="A215" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="C215" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D215" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E215" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F215" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G215" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H215" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I215" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J215" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:10">
+      <x:c r="A216" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="C216" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D216" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E216" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F216" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G216" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H216" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I216" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J216" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:10">
+      <x:c r="A217" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="C217" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D217" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E217" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F217" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G217" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H217" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I217" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J217" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:10">
+      <x:c r="A218" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="C218" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D218" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E218" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F218" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G218" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H218" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I218" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J218" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:10">
+      <x:c r="A219" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="C219" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D219" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E219" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F219" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G219" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H219" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I219" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J219" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:10">
+      <x:c r="A220" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="C220" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D220" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E220" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F220" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G220" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H220" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I220" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J220" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:10">
+      <x:c r="A221" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="C221" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D221" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E221" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F221" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G221" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H221" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I221" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J221" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:10">
+      <x:c r="A222" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="C222" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D222" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E222" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F222" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G222" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H222" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I222" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J222" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:10">
+      <x:c r="A223" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="C223" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D223" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E223" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F223" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G223" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H223" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I223" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J223" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:10">
+      <x:c r="A224" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="C224" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D224" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E224" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F224" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G224" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H224" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I224" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J224" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:10">
+      <x:c r="A225" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="C225" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D225" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E225" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F225" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G225" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H225" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I225" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J225" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:10">
+      <x:c r="A226" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="C226" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D226" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E226" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F226" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G226" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H226" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I226" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J226" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:10">
+      <x:c r="A227" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="C227" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D227" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E227" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F227" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G227" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H227" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I227" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J227" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:10">
+      <x:c r="A228" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="C228" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D228" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E228" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F228" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G228" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H228" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I228" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J228" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:10">
+      <x:c r="A229" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="C229" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D229" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E229" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F229" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G229" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H229" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I229" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J229" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:10">
+      <x:c r="A230" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="C230" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D230" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E230" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F230" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G230" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H230" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I230" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J230" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:10">
+      <x:c r="A231" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="C231" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D231" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E231" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F231" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G231" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H231" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I231" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J231" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:10">
+      <x:c r="A232" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="C232" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D232" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E232" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F232" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G232" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H232" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I232" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J232" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:10">
+      <x:c r="A233" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="C233" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D233" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E233" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F233" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G233" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H233" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I233" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J233" s="0" t="s">
+        <x:v>408</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
